--- a/biology/Zoologie/Chorinea_amazon/Chorinea_amazon.xlsx
+++ b/biology/Zoologie/Chorinea_amazon/Chorinea_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorinea amazon est une espèce d'insectes lépidoptères (papillons) de la famille des Riodinidae et du genre Chorinea.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chorinea amazon a été décrite par William Wilson Saunders en 1859 sous le protonyme de Zeonia amazon[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chorinea amazon a été décrite par William Wilson Saunders en 1859 sous le protonyme de Zeonia amazon,.
 </t>
         </is>
       </c>
@@ -542,14 +556,13 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (10 janvier 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (10 janvier 2021) :
 Chorinea amazon amazon ; présent au Brésil
-Chorinea amazon antoniana Brévignon, 1998 ; présent en Guyane
-Nom vernaculaire
-Il se nomme Amazon Angel en anglais[4].
-</t>
+Chorinea amazon antoniana Brévignon, 1998 ; présent en Guyane</t>
         </is>
       </c>
     </row>
@@ -574,12 +587,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Liste des sous-espèces</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chorinea amazon est un papillon aux ailes transparences nacrées ou bleutées, bordées de noir et largement marquées de veines noires avec à chaque aile postérieure une longue queue et une marque anale rouge. Son envergure est d'environ 38 mm pour le mâle et 44 mm pour la femelle[1],[5].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Amazon Angel en anglais.
 </t>
         </is>
       </c>
@@ -605,12 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie est peu connue.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorinea amazon est un papillon aux ailes transparences nacrées ou bleutées, bordées de noir et largement marquées de veines noires avec à chaque aile postérieure une longue queue et une marque anale rouge. Son envergure est d'environ 38 mm pour le mâle et 44 mm pour la femelle,.
 </t>
         </is>
       </c>
@@ -636,16 +657,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chorinea amazon est présent en Guyane, au Guyana, au Surinam, en Équateur, au Brésil et au Pérou[2],[4].
-Biotope
-Il réside dans la forêt amazonienne.
-Protection
-Pas de statut de protection particulier.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est peu connue.
 </t>
         </is>
       </c>
@@ -671,10 +690,119 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorinea amazon est présent en Guyane, au Guyana, au Surinam, en Équateur, au Brésil et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chorinea_amazon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chorinea_amazon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt amazonienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chorinea_amazon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chorinea_amazon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chorinea_amazon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chorinea_amazon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) William Wilson Saunders, « On the Genus Erycina, Linn., with Descriptions of some New Species », Transactions of the Entomological Society of London, Londres, new, vol. 10,‎ 1859, p. 94-110 (ISSN 2053-2520, lire en ligne, consulté le 10 janvier 2021).</t>
         </is>
